--- a/Figure4/Typesignificance.xlsx
+++ b/Figure4/Typesignificance.xlsx
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.1454288479000349</v>
+        <v>0.1027923941929266</v>
       </c>
       <c r="D17">
-        <v>0.3382271634850426</v>
+        <v>0.2891959840870001</v>
       </c>
     </row>
     <row r="18">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.4206177937712147</v>
+        <v>0.4354215620947797</v>
       </c>
       <c r="D18">
-        <v>0.7785792197390798</v>
+        <v>0.6927242098305808</v>
       </c>
     </row>
     <row r="19">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.7964107917146711</v>
+        <v>0.9037533697575735</v>
       </c>
       <c r="D19">
-        <v>0.4262204961221208</v>
+        <v>0.6064840833509557</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.2155652481566477</v>
+        <v>0.219362114665783</v>
       </c>
       <c r="D20">
-        <v>0.6369432260999098</v>
+        <v>0.6439694357947826</v>
       </c>
     </row>
     <row r="21">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.7439076792012388</v>
+        <v>0.658753935064414</v>
       </c>
       <c r="D21">
-        <v>0.1772412609187736</v>
+        <v>0.2930846340023091</v>
       </c>
     </row>
   </sheetData>
